--- a/biology/Botanique/Hydnoraceae/Hydnoraceae.xlsx
+++ b/biology/Botanique/Hydnoraceae/Hydnoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hydnoraceae est une petite famille de plantes dicotylédones à caractères primitifs.
 Ce sont des plantes herbacées totalement parasites, à l'aspect de champignons, sans feuilles et sans fonction chorophyllienne, dont seules de grosses fleurs beiges malodorantes émergent du sol.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Hydnora lui-même issu de la racine hydn (tubercule, tumeur, sorte de champignon) et ora (bouche), faisant référence à l'aspect et à la forme des fleurs de ces plantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Hydnora lui-même issu de la racine hydn (tubercule, tumeur, sorte de champignon) et ora (bouche), faisant référence à l'aspect et à la forme des fleurs de ces plantes.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[2] accepte cette famille.
-La classification phylogénétique APG IV (2016)[3] assigne les espèces aux Aristolochiaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) accepte cette famille.
+La classification phylogénétique APG IV (2016) assigne les espèces aux Aristolochiaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 mars 2010)[4], Angiosperm Phylogeny Website                        (16 mai 2010)[5] et DELTA Angio           (29 mars 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 mars 2010), Angiosperm Phylogeny Website                        (16 mai 2010) et DELTA Angio           (29 mars 2010) :
 genre Hydnora Thunb.
 genre Prosopanche (en) de Bary</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 mars 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 mars 2010) :
 genre Hydnora
 Hydnora africana
 Hydnora johannis
